--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H2">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I2">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J2">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N2">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O2">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P2">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q2">
-        <v>2173.49548359713</v>
+        <v>5518.218189841516</v>
       </c>
       <c r="R2">
-        <v>8693.981934388521</v>
+        <v>22072.87275936606</v>
       </c>
       <c r="S2">
-        <v>0.01318115434558133</v>
+        <v>0.03281272007681137</v>
       </c>
       <c r="T2">
-        <v>0.006822980893163904</v>
+        <v>0.01877227108918629</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H3">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I3">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J3">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P3">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q3">
-        <v>8447.164277606847</v>
+        <v>15624.63193869262</v>
       </c>
       <c r="R3">
-        <v>50682.98566564108</v>
+        <v>93747.79163215574</v>
       </c>
       <c r="S3">
-        <v>0.05122779272646281</v>
+        <v>0.09290801060591117</v>
       </c>
       <c r="T3">
-        <v>0.03977567993756029</v>
+        <v>0.07972949319814417</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H4">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I4">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J4">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N4">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O4">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P4">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q4">
-        <v>11626.10508677017</v>
+        <v>15968.01314190279</v>
       </c>
       <c r="R4">
-        <v>69756.63052062104</v>
+        <v>95808.07885141675</v>
       </c>
       <c r="S4">
-        <v>0.07050646607879991</v>
+        <v>0.09494984202919847</v>
       </c>
       <c r="T4">
-        <v>0.05474455327898799</v>
+        <v>0.08148170146859424</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H5">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I5">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J5">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N5">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O5">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P5">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q5">
-        <v>3727.792892704276</v>
+        <v>8521.054192368405</v>
       </c>
       <c r="R5">
-        <v>14911.17157081711</v>
+        <v>34084.21676947362</v>
       </c>
       <c r="S5">
-        <v>0.02260718453657662</v>
+        <v>0.0506683419093935</v>
       </c>
       <c r="T5">
-        <v>0.01170219118122996</v>
+        <v>0.02898753433839505</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H6">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I6">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J6">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N6">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O6">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P6">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q6">
-        <v>1700.295449996264</v>
+        <v>8439.317670541941</v>
       </c>
       <c r="R6">
-        <v>10201.77269997758</v>
+        <v>50635.90602325165</v>
       </c>
       <c r="S6">
-        <v>0.01031143470443235</v>
+        <v>0.05018231589185016</v>
       </c>
       <c r="T6">
-        <v>0.00800628535159751</v>
+        <v>0.04306421574924808</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H7">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I7">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J7">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N7">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O7">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P7">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q7">
-        <v>11505.25566490266</v>
+        <v>20075.5234906764</v>
       </c>
       <c r="R7">
-        <v>69031.53398941594</v>
+        <v>120453.1409440584</v>
       </c>
       <c r="S7">
-        <v>0.06977357526111405</v>
+        <v>0.1193741367290761</v>
       </c>
       <c r="T7">
-        <v>0.05417550220257121</v>
+        <v>0.1024415371753709</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I8">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J8">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N8">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O8">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P8">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q8">
-        <v>4436.480757637846</v>
+        <v>6089.475298673107</v>
       </c>
       <c r="R8">
-        <v>26618.88454582708</v>
+        <v>36536.85179203864</v>
       </c>
       <c r="S8">
-        <v>0.02690501915414389</v>
+        <v>0.03620955923016096</v>
       </c>
       <c r="T8">
-        <v>0.02089032873821908</v>
+        <v>0.03107342184512598</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I9">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J9">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P9">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q9">
         <v>17242.1254412668</v>
@@ -1013,10 +1013,10 @@
         <v>155179.1289714012</v>
       </c>
       <c r="S9">
-        <v>0.1045647982258878</v>
+        <v>0.1025260357908762</v>
       </c>
       <c r="T9">
-        <v>0.1217835785696461</v>
+        <v>0.1319748774068777</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I10">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J10">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N10">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O10">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P10">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q10">
-        <v>23730.89426363484</v>
+        <v>17621.05416119787</v>
       </c>
       <c r="R10">
-        <v>213578.0483727135</v>
+        <v>158589.4874507808</v>
       </c>
       <c r="S10">
-        <v>0.1439159098366089</v>
+        <v>0.1047792417331587</v>
       </c>
       <c r="T10">
-        <v>0.1676146734883632</v>
+        <v>0.1348752780291326</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I11">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J11">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N11">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O11">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P11">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q11">
-        <v>7609.070992671595</v>
+        <v>9403.170958082865</v>
       </c>
       <c r="R11">
-        <v>45654.42595602957</v>
+        <v>56419.02574849718</v>
       </c>
       <c r="S11">
-        <v>0.04614517947601152</v>
+        <v>0.0559136311518042</v>
       </c>
       <c r="T11">
-        <v>0.03582929874218388</v>
+        <v>0.04798257379022688</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I12">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J12">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N12">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O12">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P12">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q12">
-        <v>3470.597525108916</v>
+        <v>9312.972906186696</v>
       </c>
       <c r="R12">
-        <v>31235.37772598025</v>
+        <v>83816.75615568025</v>
       </c>
       <c r="S12">
-        <v>0.02104742429652666</v>
+        <v>0.05537729073782944</v>
       </c>
       <c r="T12">
-        <v>0.02451332278160641</v>
+        <v>0.07128346570579529</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I13">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J13">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N13">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O13">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P13">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q13">
-        <v>23484.2196610267</v>
+        <v>22153.78228962648</v>
       </c>
       <c r="R13">
-        <v>211357.9769492403</v>
+        <v>199384.0406066383</v>
       </c>
       <c r="S13">
-        <v>0.1424199527321885</v>
+        <v>0.1317319888239164</v>
       </c>
       <c r="T13">
-        <v>0.165872375768155</v>
+        <v>0.1695697384717149</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H14">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I14">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J14">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N14">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O14">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P14">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q14">
-        <v>2.709956323736667</v>
+        <v>0.3515194911840001</v>
       </c>
       <c r="R14">
-        <v>16.25973794242</v>
+        <v>2.109116947104</v>
       </c>
       <c r="S14">
-        <v>1.643451888560636E-05</v>
+        <v>2.090223740517774E-06</v>
       </c>
       <c r="T14">
-        <v>1.276053736322684E-05</v>
+        <v>1.793736389525148E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H15">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I15">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J15">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P15">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q15">
-        <v>10.53208825346067</v>
+        <v>0.9953145164026668</v>
       </c>
       <c r="R15">
-        <v>94.78879428114601</v>
+        <v>8.957830647624</v>
       </c>
       <c r="S15">
-        <v>6.38718055306901E-05</v>
+        <v>5.918391678536645E-06</v>
       </c>
       <c r="T15">
-        <v>7.438963378888029E-05</v>
+        <v>7.618347965915087E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H16">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I16">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J16">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N16">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O16">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P16">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q16">
-        <v>14.49565330965267</v>
+        <v>1.017188458621333</v>
       </c>
       <c r="R16">
-        <v>130.460879786874</v>
+        <v>9.154696127592</v>
       </c>
       <c r="S16">
-        <v>8.790882937485985E-05</v>
+        <v>6.048459667569545E-06</v>
       </c>
       <c r="T16">
-        <v>0.0001023848561923427</v>
+        <v>7.78577574925579E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H17">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I17">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J17">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N17">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O17">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P17">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q17">
-        <v>4.647884478897334</v>
+        <v>0.5428050379680001</v>
       </c>
       <c r="R17">
-        <v>27.887306873384</v>
+        <v>3.256830227808</v>
       </c>
       <c r="S17">
-        <v>2.818707614491336E-05</v>
+        <v>3.227655948783439E-06</v>
       </c>
       <c r="T17">
-        <v>2.188577839186414E-05</v>
+        <v>2.769829763184121E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H18">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I18">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J18">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N18">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O18">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P18">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q18">
-        <v>2.119961344162666</v>
+        <v>0.5375982883297779</v>
       </c>
       <c r="R18">
-        <v>19.079652097464</v>
+        <v>4.838384594968001</v>
       </c>
       <c r="S18">
-        <v>1.285649677901685E-05</v>
+        <v>3.196695299437689E-06</v>
       </c>
       <c r="T18">
-        <v>1.4973587786546E-05</v>
+        <v>4.114891081041629E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H19">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I19">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J19">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N19">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O19">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P19">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q19">
-        <v>14.34497590660245</v>
+        <v>1.278843561439111</v>
       </c>
       <c r="R19">
-        <v>129.104783159422</v>
+        <v>11.509592052952</v>
       </c>
       <c r="S19">
-        <v>8.69950468890047E-05</v>
+        <v>7.604327041794488E-06</v>
       </c>
       <c r="T19">
-        <v>0.0001013206003141713</v>
+        <v>9.788539285276271E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H20">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I20">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J20">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N20">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O20">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P20">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q20">
-        <v>461.00878174113</v>
+        <v>895.1464143018001</v>
       </c>
       <c r="R20">
-        <v>1844.03512696452</v>
+        <v>3580.5856572072</v>
       </c>
       <c r="S20">
-        <v>0.002795785844809506</v>
+        <v>0.005322766826131961</v>
       </c>
       <c r="T20">
-        <v>0.001447186862424383</v>
+        <v>0.003045173383089636</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H21">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I21">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J21">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P21">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q21">
-        <v>1791.683922131646</v>
+        <v>2534.5741638947</v>
       </c>
       <c r="R21">
-        <v>10750.10353278988</v>
+        <v>15207.4449833682</v>
       </c>
       <c r="S21">
-        <v>0.0108656597146586</v>
+        <v>0.01507121858771292</v>
       </c>
       <c r="T21">
-        <v>0.008436611849127097</v>
+        <v>0.01293344472710461</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H22">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I22">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J22">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N22">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O22">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P22">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q22">
-        <v>2465.952463621374</v>
+        <v>2590.2762840751</v>
       </c>
       <c r="R22">
-        <v>14795.71478172824</v>
+        <v>15541.6577044506</v>
       </c>
       <c r="S22">
-        <v>0.01495475848795675</v>
+        <v>0.01540243747291921</v>
       </c>
       <c r="T22">
-        <v>0.01161158143854997</v>
+        <v>0.01321768193854557</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H23">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I23">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J23">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N23">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O23">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P23">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q23">
-        <v>790.682692013076</v>
+        <v>1382.2561638486</v>
       </c>
       <c r="R23">
-        <v>3162.730768052304</v>
+        <v>5529.024655394401</v>
       </c>
       <c r="S23">
-        <v>0.004795091906312834</v>
+        <v>0.00821924451307603</v>
       </c>
       <c r="T23">
-        <v>0.002482090687960489</v>
+        <v>0.004702258325021009</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H24">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I24">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J24">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N24">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O24">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P24">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q24">
-        <v>360.6407926394639</v>
+        <v>1368.997145826233</v>
       </c>
       <c r="R24">
-        <v>2163.844755836784</v>
+        <v>8213.982874957401</v>
       </c>
       <c r="S24">
-        <v>0.002187104591184273</v>
+        <v>0.00814040304072138</v>
       </c>
       <c r="T24">
-        <v>0.001698171394450417</v>
+        <v>0.006985729267397029</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H25">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I25">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J25">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N25">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O25">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P25">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q25">
-        <v>2440.319723562922</v>
+        <v>3256.582514441433</v>
       </c>
       <c r="R25">
-        <v>14641.91834137753</v>
+        <v>19539.4950866486</v>
       </c>
       <c r="S25">
-        <v>0.01479930884218549</v>
+        <v>0.01936446272641391</v>
       </c>
       <c r="T25">
-        <v>0.01149088298508311</v>
+        <v>0.01661771454541406</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H26">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I26">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J26">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N26">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O26">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P26">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q26">
-        <v>2062.646636171672</v>
+        <v>11.859585661692</v>
       </c>
       <c r="R26">
-        <v>12375.87981703003</v>
+        <v>71.157513970152</v>
       </c>
       <c r="S26">
-        <v>0.0125089119701214</v>
+        <v>7.052009383399203E-05</v>
       </c>
       <c r="T26">
-        <v>0.009712510580875468</v>
+        <v>6.051718581639748E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H27">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I27">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J27">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>174.766479</v>
       </c>
       <c r="O27">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P27">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q27">
-        <v>8016.356654010337</v>
+        <v>33.579980808018</v>
       </c>
       <c r="R27">
-        <v>72147.20988609304</v>
+        <v>302.219827272162</v>
       </c>
       <c r="S27">
-        <v>0.04861516167996038</v>
+        <v>0.0001996750531659999</v>
       </c>
       <c r="T27">
-        <v>0.05662066453126591</v>
+        <v>0.0002570282802755133</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H28">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I28">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J28">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N28">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O28">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P28">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q28">
-        <v>11033.17063687526</v>
+        <v>34.317965181594</v>
       </c>
       <c r="R28">
-        <v>99298.53573187737</v>
+        <v>308.861686634346</v>
       </c>
       <c r="S28">
-        <v>0.06691061756664085</v>
+        <v>0.0002040632947755448</v>
       </c>
       <c r="T28">
-        <v>0.07792884976421387</v>
+        <v>0.0002626769688645535</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H29">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I29">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J29">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N29">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O29">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P29">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q29">
-        <v>3537.674464248559</v>
+        <v>18.313188903684</v>
       </c>
       <c r="R29">
-        <v>21226.04678549135</v>
+        <v>109.879133422104</v>
       </c>
       <c r="S29">
-        <v>0.02145421211573368</v>
+        <v>0.0001088948498478291</v>
       </c>
       <c r="T29">
-        <v>0.01665806448043841</v>
+        <v>9.344868255852018E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H30">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I30">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J30">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N30">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O30">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P30">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q30">
-        <v>1613.57993007123</v>
+        <v>18.137523272326</v>
       </c>
       <c r="R30">
-        <v>14522.21937064107</v>
+        <v>163.237709450934</v>
       </c>
       <c r="S30">
-        <v>0.009785548793504425</v>
+        <v>0.0001078502976045928</v>
       </c>
       <c r="T30">
-        <v>0.01139694400563391</v>
+        <v>0.0001388284419159026</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H31">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I31">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J31">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N31">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O31">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P31">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q31">
-        <v>10918.48456764738</v>
+        <v>43.145700722614</v>
       </c>
       <c r="R31">
-        <v>98266.36110882637</v>
+        <v>388.3113065035259</v>
       </c>
       <c r="S31">
-        <v>0.06621510437547518</v>
+        <v>0.0002565552414971962</v>
       </c>
       <c r="T31">
-        <v>0.07711880578383368</v>
+        <v>0.0003302463250773369</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H32">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I32">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J32">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N32">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O32">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P32">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q32">
-        <v>11.07376009838</v>
+        <v>0.8849710305599999</v>
       </c>
       <c r="R32">
-        <v>66.44256059028001</v>
+        <v>5.30982618336</v>
       </c>
       <c r="S32">
-        <v>6.715677218758928E-05</v>
+        <v>5.262261422592741E-06</v>
       </c>
       <c r="T32">
-        <v>5.214369259351932E-05</v>
+        <v>4.515837047454447E-06</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H33">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I33">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J33">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>174.766479</v>
       </c>
       <c r="O33">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P33">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q33">
-        <v>43.037527074596</v>
+        <v>2.505762938906666</v>
       </c>
       <c r="R33">
-        <v>387.337743671364</v>
+        <v>22.55186645016</v>
       </c>
       <c r="S33">
-        <v>0.000261000904443349</v>
+        <v>1.489989976194726E-05</v>
       </c>
       <c r="T33">
-        <v>0.0003039801605542227</v>
+        <v>1.917963987673019E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H34">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I34">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J34">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N34">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O34">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P34">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q34">
-        <v>59.233938869924</v>
+        <v>2.560831877253333</v>
       </c>
       <c r="R34">
-        <v>533.1054498293159</v>
+        <v>23.04748689528</v>
       </c>
       <c r="S34">
-        <v>0.0003592239766005964</v>
+        <v>1.522735358793456E-05</v>
       </c>
       <c r="T34">
-        <v>0.0004183777152606656</v>
+        <v>1.960114918612391E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H35">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I35">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J35">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N35">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O35">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P35">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q35">
-        <v>18.992762810776</v>
+        <v>1.36654366512</v>
       </c>
       <c r="R35">
-        <v>113.956576864656</v>
+        <v>8.19926199072</v>
       </c>
       <c r="S35">
-        <v>0.0001151815312924104</v>
+        <v>8.12581402432915E-06</v>
       </c>
       <c r="T35">
-        <v>8.943238581189871E-05</v>
+        <v>6.973209626995453E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H36">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I36">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J36">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N36">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O36">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P36">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q36">
-        <v>8.662849337263999</v>
+        <v>1.353435366124444</v>
       </c>
       <c r="R36">
-        <v>77.965644035376</v>
+        <v>12.18091829512</v>
       </c>
       <c r="S36">
-        <v>5.253581387618784E-05</v>
+        <v>8.047868765401892E-06</v>
       </c>
       <c r="T36">
-        <v>6.118693408741288E-05</v>
+        <v>1.03594807456222E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H37">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I37">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J37">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N37">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O37">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P37">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q37">
-        <v>58.61822215190534</v>
+        <v>3.219564015297777</v>
       </c>
       <c r="R37">
-        <v>527.5639993671481</v>
+        <v>28.97607613767999</v>
       </c>
       <c r="S37">
-        <v>0.0003554899651178916</v>
+        <v>1.91443413741447E-05</v>
       </c>
       <c r="T37">
-        <v>0.0004140288207139409</v>
+        <v>2.464322439074547E-05</v>
       </c>
     </row>
   </sheetData>
